--- a/data/CostEstimateWorksheet.xlsx
+++ b/data/CostEstimateWorksheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardevans/Docs/Economics/OSE/KS-FlatTax/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B9F54D-7D81-9D43-B757-48C8A384C8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A598E631-0F6E-0C43-A82F-92EB5659BB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21240" yWindow="10940" windowWidth="19980" windowHeight="13500" xr2:uid="{D034F2A3-9101-E840-BA85-5E51C69A619D}"/>
+    <workbookView xWindow="-21200" yWindow="13760" windowWidth="19980" windowHeight="13500" xr2:uid="{D034F2A3-9101-E840-BA85-5E51C69A619D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Quadratic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Kansas cost estimate worksheet for 5.15% flat tax and new standard deductions</t>
   </si>
@@ -186,13 +187,43 @@
   </si>
   <si>
     <t>Total cost estimate (flat rate and standard deduction)</t>
+  </si>
+  <si>
+    <t>Quadratic coefficient estimates</t>
+  </si>
+  <si>
+    <t>We have three cost estimate data points from the Kansas Legislative Research Department for three different proposed flat tax rates</t>
+  </si>
+  <si>
+    <t>Let the function to fit the data be 3 parameter quadratic: cost_year = a_year * (flat_rate ** 2) + b_year * flat_rate + c_year</t>
+  </si>
+  <si>
+    <t>The 3 coefficients (a_year, b_year, c_year) are exactly identified by the data.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Alternative policy 1</t>
+  </si>
+  <si>
+    <t>Alternative policy 2</t>
+  </si>
+  <si>
+    <t>Alternative policy 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +268,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -271,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -292,6 +329,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -607,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D315DB-4016-5A4C-960D-024E5D1D6469}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,7 +656,8 @@
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="11.1640625" customWidth="1"/>
     <col min="19" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -799,13 +838,16 @@
         <v>5225</v>
       </c>
       <c r="H8" s="7">
-        <v>149666666.666684</v>
+        <f>Quadratic!D$13*(Main!$C8^2) + Quadratic!D$14*Main!$C8 + Quadratic!D$15</f>
+        <v>149666643.3125</v>
       </c>
       <c r="I8" s="7">
-        <v>500366666.66664302</v>
+        <f>Quadratic!E$13*(Main!$C8^2) + Quadratic!E$14*Main!$C8 + Quadratic!E$15</f>
+        <v>500366643.3125</v>
       </c>
       <c r="J8" s="7">
-        <v>505466666.66664302</v>
+        <f>Quadratic!F$13*(Main!$C8^2) + Quadratic!F$14*Main!$C8 + Quadratic!F$15</f>
+        <v>505466643.3125</v>
       </c>
       <c r="K8" s="7">
         <f>K9*(0.25*(($D$8-$D$7)/($D$9-$D$7)) + 0.25*(($E$8-$E$7)/($E$9-$E$7)) + 0.25*(($F$8-$F$7)/($F$9-$F$7)) + 0.25*(($G$8-$G$7)/$G$7))</f>
@@ -821,15 +863,15 @@
       </c>
       <c r="N8" s="7">
         <f>H8+K8</f>
-        <v>157890159.15242335</v>
+        <v>157890135.79823935</v>
       </c>
       <c r="O8" s="7">
         <f t="shared" ref="O8:P8" si="0">I8+L8</f>
-        <v>512245044.7015999</v>
+        <v>512245021.34745687</v>
       </c>
       <c r="P8" s="7">
         <f t="shared" si="0"/>
-        <v>521373725.36380553</v>
+        <v>521373702.00966251</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>1</v>
@@ -905,6 +947,15 @@
       <c r="R9" t="s">
         <v>23</v>
       </c>
+      <c r="S9" s="2">
+        <v>641700000</v>
+      </c>
+      <c r="T9" s="2">
+        <v>751900000</v>
+      </c>
+      <c r="U9" s="2">
+        <v>691600000</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -967,6 +1018,15 @@
       <c r="R10" t="s">
         <v>27</v>
       </c>
+      <c r="S10" s="2">
+        <v>302700000</v>
+      </c>
+      <c r="T10" s="2">
+        <v>569300000</v>
+      </c>
+      <c r="U10" s="2">
+        <v>480800000</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1026,41 +1086,236 @@
       <c r="R11" t="s">
         <v>28</v>
       </c>
+      <c r="S11" s="2">
+        <v>436600000</v>
+      </c>
+      <c r="T11" s="2">
+        <v>514300000</v>
+      </c>
+      <c r="U11" s="2">
+        <v>422400000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>16000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8000</v>
+      </c>
+      <c r="H12" s="2">
+        <f>H10</f>
+        <v>99200000</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" ref="I12:J12" si="1">I10</f>
+        <v>331700000</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>335000000</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" ref="K12:M12" si="2">K$11*(0.25*(($D12-$D$7)/($D$11-$D$7)) + 0.25*(($E12-$E$7)/($E$11-$E$7)) + 0.25*(($F12-$F$7)/($F$11-$F$7)) + 0.25*(($G12-$G$7)/$G$7))</f>
+        <v>28474265.028521277</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>41129493.930086292</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="2"/>
+        <v>55079007.605674997</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" ref="N12:P12" si="3">H12+K12</f>
+        <v>127674265.02852127</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="3"/>
+        <v>372829493.93008631</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" si="3"/>
+        <v>390079007.60567498</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>16000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8000</v>
+      </c>
+      <c r="H13" s="7">
+        <f>Quadratic!D$13*(Main!$C13^2) + Quadratic!D$14*Main!$C13 + Quadratic!D$15</f>
+        <v>118166641.3324995</v>
+      </c>
+      <c r="I13" s="7">
+        <f>Quadratic!E$13*(Main!$C13^2) + Quadratic!E$14*Main!$C13 + Quadratic!E$15</f>
+        <v>395066641.33250046</v>
+      </c>
+      <c r="J13" s="7">
+        <f>Quadratic!F$13*(Main!$C13^2) + Quadratic!F$14*Main!$C13 + Quadratic!F$15</f>
+        <v>398966641.33250046</v>
+      </c>
+      <c r="K13" s="7">
+        <f>K$11*(0.25*(($D13-$D$7)/($D$11-$D$7)) + 0.25*(($E13-$E$7)/($E$11-$E$7)) + 0.25*(($F13-$F$7)/($F$11-$F$7)) + 0.25*(($G13-$G$7)/$G$7))</f>
+        <v>28474265.028521277</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" ref="L13:M14" si="4">L$11*(0.25*(($D13-$D$7)/($D$11-$D$7)) + 0.25*(($E13-$E$7)/($E$11-$E$7)) + 0.25*(($F13-$F$7)/($F$11-$F$7)) + 0.25*(($G13-$G$7)/$G$7))</f>
+        <v>41129493.930086292</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="4"/>
+        <v>55079007.605674997</v>
+      </c>
+      <c r="N13" s="7">
+        <f>H13+K13</f>
+        <v>146640906.36102077</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" ref="O13:P13" si="5">I13+L13</f>
+        <v>436196135.26258677</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" si="5"/>
+        <v>454045648.93817544</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8000</v>
+      </c>
+      <c r="H14" s="7">
+        <f>Quadratic!D$13*(Main!$C14^2) + Quadratic!D$14*Main!$C14 + Quadratic!D$15</f>
+        <v>75999973.312500954</v>
+      </c>
+      <c r="I14" s="7">
+        <f>Quadratic!E$13*(Main!$C14^2) + Quadratic!E$14*Main!$C14 + Quadratic!E$15</f>
+        <v>254199973.31250381</v>
+      </c>
+      <c r="J14" s="7">
+        <f>Quadratic!F$13*(Main!$C14^2) + Quadratic!F$14*Main!$C14 + Quadratic!F$15</f>
+        <v>256799973.31250381</v>
+      </c>
+      <c r="K14" s="7">
+        <f>K$11*(0.25*(($D14-$D$7)/($D$11-$D$7)) + 0.25*(($E14-$E$7)/($E$11-$E$7)) + 0.25*(($F14-$F$7)/($F$11-$F$7)) + 0.25*(($G14-$G$7)/$G$7))</f>
+        <v>28474265.028521277</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="4"/>
+        <v>41129493.930086292</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="4"/>
+        <v>55079007.605674997</v>
+      </c>
+      <c r="N14" s="7">
+        <f>H14+K14</f>
+        <v>104474238.34102222</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" ref="O14" si="6">I14+L14</f>
+        <v>295329467.24259013</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" ref="P14" si="7">J14+M14</f>
+        <v>311878980.9181788</v>
+      </c>
+      <c r="Q14" s="6"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>40</v>
+      <c r="A16" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:R11">
@@ -1071,5 +1326,193 @@
     <hyperlink ref="Q11" r:id="rId2" xr:uid="{0A024A3F-8E73-834E-B898-1574229E6A0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E521B24F-2561-A04B-966F-11A2955ED163}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>Main!A9</f>
+        <v>Revision House Sub for SB 169</v>
+      </c>
+      <c r="B10" s="3">
+        <f>Main!B9</f>
+        <v>45008</v>
+      </c>
+      <c r="C10" s="5">
+        <f>Main!C9</f>
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <f>Main!H9</f>
+        <v>132900000</v>
+      </c>
+      <c r="E10" s="2">
+        <f>Main!I9</f>
+        <v>444300000</v>
+      </c>
+      <c r="F10" s="2">
+        <f>Main!J9</f>
+        <v>448700000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>Main!A10</f>
+        <v>Final version of House Substitute for SB 169</v>
+      </c>
+      <c r="B11" s="3">
+        <f>Main!B10</f>
+        <v>45021</v>
+      </c>
+      <c r="C11" s="5">
+        <f>Main!C10</f>
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <f>Main!H10</f>
+        <v>99200000</v>
+      </c>
+      <c r="E11" s="2">
+        <f>Main!I10</f>
+        <v>331700000</v>
+      </c>
+      <c r="F11" s="2">
+        <f>Main!J10</f>
+        <v>335000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>Main!A11</f>
+        <v>House Substitute for SB 169</v>
+      </c>
+      <c r="B12" s="3">
+        <f>Main!B11</f>
+        <v>45014</v>
+      </c>
+      <c r="C12" s="5">
+        <f>Main!C11</f>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <f>Main!H11</f>
+        <v>76000000</v>
+      </c>
+      <c r="E12" s="2">
+        <f>Main!I11</f>
+        <v>254200000</v>
+      </c>
+      <c r="F12" s="2">
+        <f>Main!J11</f>
+        <v>256800000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="14">
+        <v>-2116666670000</v>
+      </c>
+      <c r="E13" s="14">
+        <v>-7066666670000</v>
+      </c>
+      <c r="F13" s="14">
+        <v>-7116666670000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="14">
+        <v>196933333000</v>
+      </c>
+      <c r="E14" s="14">
+        <v>657433333000</v>
+      </c>
+      <c r="F14" s="14">
+        <v>661933333000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="14">
+        <v>-4428937500</v>
+      </c>
+      <c r="E15" s="14">
+        <v>-14783550000</v>
+      </c>
+      <c r="F15" s="14">
+        <v>-14879387500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/CostEstimateWorksheet.xlsx
+++ b/data/CostEstimateWorksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardevans/Docs/Economics/OSE/KS-FlatTax/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A598E631-0F6E-0C43-A82F-92EB5659BB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C07F320-97D2-F647-929E-A1C2D93480EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21200" yWindow="13760" windowWidth="19980" windowHeight="13500" xr2:uid="{D034F2A3-9101-E840-BA85-5E51C69A619D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Quadratic" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,9 +114,6 @@
     <t>Flat tax rate cost estimate</t>
   </si>
   <si>
-    <t>Standard deduction cost estimate</t>
-  </si>
-  <si>
     <t>http://www.kslegislature.org/li/b2023_24/measures/documents/ccrb_sb169_02_04058pm</t>
   </si>
   <si>
@@ -156,12 +153,6 @@
     <t>FY2026b</t>
   </si>
   <si>
-    <t>b1 The standard deduction cost estimates associated with the 0.0475 flat rate for FY 2024, 2025, and 2026 were fit as a linear function with two coefficients to the two data points of the current policy with no change and the cost of the standard deduction change in the last three amendments.</t>
-  </si>
-  <si>
-    <t>b2 The cost of the standard deduction was not given in the 0.0515 estimate, so we imputed it as the cost of the other two with estimates.</t>
-  </si>
-  <si>
     <t>Current policy</t>
   </si>
   <si>
@@ -186,9 +177,6 @@
     <t>Total bill cost estimate</t>
   </si>
   <si>
-    <t>Total cost estimate (flat rate and standard deduction)</t>
-  </si>
-  <si>
     <t>Quadratic coefficient estimates</t>
   </si>
   <si>
@@ -217,6 +205,18 @@
   </si>
   <si>
     <t>Alternative policy 3</t>
+  </si>
+  <si>
+    <t>Extra exemption cost</t>
+  </si>
+  <si>
+    <t>Total cost estimate (flat rate and extra exemption)</t>
+  </si>
+  <si>
+    <t>b1 The extra exemption cost estimates associated with the 0.0475 flat rate for FY 2024, 2025, and 2026 were fit as a linear function with two coefficients to the two data points of the current policy with no change and the cost of the extra exemption in the last three amendments.</t>
+  </si>
+  <si>
+    <t>b2 The cost of the extra exemption was not given in the 0.0515 estimate on 4/5/23, so we imputed it as the cost of the other two with estimates.</t>
   </si>
 </sst>
 </file>
@@ -323,10 +323,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D315DB-4016-5A4C-960D-024E5D1D6469}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,13 +671,13 @@
       <c r="A2" s="1"/>
       <c r="I2" s="9"/>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I3" s="10"/>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -701,12 +701,12 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -715,7 +715,7 @@
       </c>
       <c r="R5" s="11"/>
       <c r="S5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -741,31 +741,31 @@
         <v>12</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="K6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="N6" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="11" t="s">
         <v>14</v>
@@ -785,11 +785,11 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="13">
         <v>4000</v>
@@ -850,28 +850,28 @@
         <v>505466643.3125</v>
       </c>
       <c r="K8" s="7">
-        <f>K9*(0.25*(($D$8-$D$7)/($D$9-$D$7)) + 0.25*(($E$8-$E$7)/($E$9-$E$7)) + 0.25*(($F$8-$F$7)/($F$9-$F$7)) + 0.25*(($G$8-$G$7)/$G$7))</f>
-        <v>8223492.4857393596</v>
+        <f>K9*(0.25*(($D$8)/($D$9)) + 0.25*(($E$8)/($E$9)) + 0.25*(($F$8)/($F$9)) + 0.25*(($G$8)/$G$9))</f>
+        <v>16821951.219512194</v>
       </c>
       <c r="L8" s="7">
-        <f>L9*(0.25*(($D$8-$D$7)/($D$9-$D$7)) + 0.25*(($E$8-$E$7)/($E$9-$E$7)) + 0.25*(($F$8-$F$7)/($F$9-$F$7)) + 0.25*(($G$8-$G$7)/$G$7))</f>
-        <v>11878378.034956852</v>
+        <f>L9*(0.25*(($D$8)/($D$9)) + 0.25*(($E$8)/($E$9)) + 0.25*(($F$8)/($F$9)) + 0.25*(($G$8)/$G$9))</f>
+        <v>24298373.983739838</v>
       </c>
       <c r="M8" s="7">
-        <f>M9*(0.25*(($D$8-$D$7)/($D$9-$D$7)) + 0.25*(($E$8-$E$7)/($E$9-$E$7)) + 0.25*(($F$8-$F$7)/($F$9-$F$7)) + 0.25*(($G$8-$G$7)/$G$7))</f>
-        <v>15907058.697162498</v>
+        <f>M9*(0.25*(($D$8)/($D$9)) + 0.25*(($E$8)/($E$9)) + 0.25*(($F$8)/($F$9)) + 0.25*(($G$8)/$G$9))</f>
+        <v>32539430.894308943</v>
       </c>
       <c r="N8" s="7">
         <f>H8+K8</f>
-        <v>157890135.79823935</v>
+        <v>166488594.53201219</v>
       </c>
       <c r="O8" s="7">
         <f t="shared" ref="O8:P8" si="0">I8+L8</f>
-        <v>512245021.34745687</v>
+        <v>524665017.29623985</v>
       </c>
       <c r="P8" s="7">
         <f t="shared" si="0"/>
-        <v>521373702.00966251</v>
+        <v>538006074.20680892</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>1</v>
@@ -934,11 +934,11 @@
         <v>152700000</v>
       </c>
       <c r="O9" s="2">
-        <f>I9+L9</f>
+        <f t="shared" ref="O9:P11" si="1">I9+L9</f>
         <v>472900000</v>
       </c>
       <c r="P9" s="2">
-        <f>J9+M9</f>
+        <f t="shared" si="1"/>
         <v>487000000</v>
       </c>
       <c r="Q9" s="6" t="s">
@@ -1005,18 +1005,18 @@
         <v>119000000</v>
       </c>
       <c r="O10" s="8">
-        <f>I10+L10</f>
+        <f t="shared" si="1"/>
         <v>360300000</v>
       </c>
       <c r="P10" s="8">
-        <f>J10+M10</f>
+        <f t="shared" si="1"/>
         <v>373300000</v>
       </c>
       <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
         <v>26</v>
-      </c>
-      <c r="R10" t="s">
-        <v>27</v>
       </c>
       <c r="S10" s="2">
         <v>302700000</v>
@@ -1073,18 +1073,18 @@
         <v>95800000</v>
       </c>
       <c r="O11" s="2">
-        <f>I11+L11</f>
+        <f t="shared" si="1"/>
         <v>282800000</v>
       </c>
       <c r="P11" s="2">
-        <f>J11+M11</f>
+        <f t="shared" si="1"/>
         <v>295100000</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="R11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S11" s="2">
         <v>436600000</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="5">
@@ -1121,36 +1121,36 @@
         <v>99200000</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" ref="I12:J12" si="1">I10</f>
+        <f t="shared" ref="I12:J12" si="2">I10</f>
         <v>331700000</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>335000000</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" ref="K12:M12" si="2">K$11*(0.25*(($D12-$D$7)/($D$11-$D$7)) + 0.25*(($E12-$E$7)/($E$11-$E$7)) + 0.25*(($F12-$F$7)/($F$11-$F$7)) + 0.25*(($G12-$G$7)/$G$7))</f>
-        <v>28474265.028521277</v>
+        <f>K$11*(0.25*(($D12)/($D$11)) + 0.25*(($E12)/($E$11)) + 0.25*(($F12)/($F$11)) + 0.25*(($G12)/$G$11))</f>
+        <v>25756097.560975607</v>
       </c>
       <c r="L12" s="7">
-        <f t="shared" si="2"/>
-        <v>41129493.930086292</v>
+        <f>L$11*(0.25*(($D12)/($D$11)) + 0.25*(($E12)/($E$11)) + 0.25*(($F12)/($F$11)) + 0.25*(($G12)/$G$11))</f>
+        <v>37203252.032520324</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" si="2"/>
-        <v>55079007.605674997</v>
+        <f>M$11*(0.25*(($D12)/($D$11)) + 0.25*(($E12)/($E$11)) + 0.25*(($F12)/($F$11)) + 0.25*(($G12)/$G$11))</f>
+        <v>49821138.211382113</v>
       </c>
       <c r="N12" s="7">
         <f t="shared" ref="N12:P12" si="3">H12+K12</f>
-        <v>127674265.02852127</v>
+        <v>124956097.56097561</v>
       </c>
       <c r="O12" s="7">
         <f t="shared" si="3"/>
-        <v>372829493.93008631</v>
+        <v>368903252.03252029</v>
       </c>
       <c r="P12" s="7">
         <f t="shared" si="3"/>
-        <v>390079007.60567498</v>
+        <v>384821138.21138209</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="S12" s="2"/>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="5">
@@ -1190,28 +1190,28 @@
         <v>398966641.33250046</v>
       </c>
       <c r="K13" s="7">
-        <f>K$11*(0.25*(($D13-$D$7)/($D$11-$D$7)) + 0.25*(($E13-$E$7)/($E$11-$E$7)) + 0.25*(($F13-$F$7)/($F$11-$F$7)) + 0.25*(($G13-$G$7)/$G$7))</f>
-        <v>28474265.028521277</v>
+        <f>K$11*(0.25*(($D13)/($D$11)) + 0.25*(($E13)/($E$11)) + 0.25*(($F13)/($F$11)) + 0.25*(($G13)/$G$11))</f>
+        <v>25756097.560975607</v>
       </c>
       <c r="L13" s="7">
-        <f t="shared" ref="L13:M14" si="4">L$11*(0.25*(($D13-$D$7)/($D$11-$D$7)) + 0.25*(($E13-$E$7)/($E$11-$E$7)) + 0.25*(($F13-$F$7)/($F$11-$F$7)) + 0.25*(($G13-$G$7)/$G$7))</f>
-        <v>41129493.930086292</v>
+        <f>L$11*(0.25*(($D13)/($D$11)) + 0.25*(($E13)/($E$11)) + 0.25*(($F13)/($F$11)) + 0.25*(($G13)/$G$11))</f>
+        <v>37203252.032520324</v>
       </c>
       <c r="M13" s="7">
-        <f t="shared" si="4"/>
-        <v>55079007.605674997</v>
+        <f>M$11*(0.25*(($D13)/($D$11)) + 0.25*(($E13)/($E$11)) + 0.25*(($F13)/($F$11)) + 0.25*(($G13)/$G$11))</f>
+        <v>49821138.211382113</v>
       </c>
       <c r="N13" s="7">
         <f>H13+K13</f>
-        <v>146640906.36102077</v>
+        <v>143922738.89347512</v>
       </c>
       <c r="O13" s="7">
-        <f t="shared" ref="O13:P13" si="5">I13+L13</f>
-        <v>436196135.26258677</v>
+        <f t="shared" ref="O13:P13" si="4">I13+L13</f>
+        <v>432269893.36502075</v>
       </c>
       <c r="P13" s="7">
-        <f t="shared" si="5"/>
-        <v>454045648.93817544</v>
+        <f t="shared" si="4"/>
+        <v>448787779.54388255</v>
       </c>
       <c r="Q13" s="6"/>
       <c r="S13" s="2"/>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="5">
@@ -1251,28 +1251,28 @@
         <v>256799973.31250381</v>
       </c>
       <c r="K14" s="7">
-        <f>K$11*(0.25*(($D14-$D$7)/($D$11-$D$7)) + 0.25*(($E14-$E$7)/($E$11-$E$7)) + 0.25*(($F14-$F$7)/($F$11-$F$7)) + 0.25*(($G14-$G$7)/$G$7))</f>
-        <v>28474265.028521277</v>
+        <f>K$11*(0.25*(($D14)/($D$11)) + 0.25*(($E14)/($E$11)) + 0.25*(($F14)/($F$11)) + 0.25*(($G14)/$G$11))</f>
+        <v>25756097.560975607</v>
       </c>
       <c r="L14" s="7">
-        <f t="shared" si="4"/>
-        <v>41129493.930086292</v>
+        <f>L$11*(0.25*(($D14)/($D$11)) + 0.25*(($E14)/($E$11)) + 0.25*(($F14)/($F$11)) + 0.25*(($G14)/$G$11))</f>
+        <v>37203252.032520324</v>
       </c>
       <c r="M14" s="7">
-        <f t="shared" si="4"/>
-        <v>55079007.605674997</v>
+        <f>M$11*(0.25*(($D14)/($D$11)) + 0.25*(($E14)/($E$11)) + 0.25*(($F14)/($F$11)) + 0.25*(($G14)/$G$11))</f>
+        <v>49821138.211382113</v>
       </c>
       <c r="N14" s="7">
         <f>H14+K14</f>
-        <v>104474238.34102222</v>
+        <v>101756070.87347656</v>
       </c>
       <c r="O14" s="7">
-        <f t="shared" ref="O14" si="6">I14+L14</f>
-        <v>295329467.24259013</v>
+        <f t="shared" ref="O14" si="5">I14+L14</f>
+        <v>291403225.34502411</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" ref="P14" si="7">J14+M14</f>
-        <v>311878980.9181788</v>
+        <f t="shared" ref="P14" si="6">J14+M14</f>
+        <v>306621111.52388591</v>
       </c>
       <c r="Q14" s="6"/>
       <c r="S14" s="2"/>
@@ -1284,32 +1284,32 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1347,22 +1347,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1472,7 +1472,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" s="14">
         <v>-2116666670000</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" s="14">
         <v>196933333000</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="14">
         <v>-4428937500</v>

--- a/data/CostEstimateWorksheet.xlsx
+++ b/data/CostEstimateWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardevans/Docs/Economics/OSE/KS-FlatTax/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C07F320-97D2-F647-929E-A1C2D93480EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78353C4-2594-DE4B-9D87-9C81B997D170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21200" yWindow="13760" windowWidth="19980" windowHeight="13500" xr2:uid="{D034F2A3-9101-E840-BA85-5E51C69A619D}"/>
+    <workbookView xWindow="-20520" yWindow="10180" windowWidth="19980" windowHeight="13500" xr2:uid="{D034F2A3-9101-E840-BA85-5E51C69A619D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D315DB-4016-5A4C-960D-024E5D1D6469}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1105,13 +1105,13 @@
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>8000</v>
+        <v>6150</v>
       </c>
       <c r="E12" s="2">
-        <v>16000</v>
+        <v>12300</v>
       </c>
       <c r="F12" s="2">
-        <v>8000</v>
+        <v>6150</v>
       </c>
       <c r="G12" s="2">
         <v>8000</v>
@@ -1130,27 +1130,27 @@
       </c>
       <c r="K12" s="7">
         <f>K$11*(0.25*(($D12)/($D$11)) + 0.25*(($E12)/($E$11)) + 0.25*(($F12)/($F$11)) + 0.25*(($G12)/$G$11))</f>
-        <v>25756097.560975607</v>
+        <v>21289024.390243903</v>
       </c>
       <c r="L12" s="7">
         <f>L$11*(0.25*(($D12)/($D$11)) + 0.25*(($E12)/($E$11)) + 0.25*(($F12)/($F$11)) + 0.25*(($G12)/$G$11))</f>
-        <v>37203252.032520324</v>
+        <v>30750813.008130081</v>
       </c>
       <c r="M12" s="7">
         <f>M$11*(0.25*(($D12)/($D$11)) + 0.25*(($E12)/($E$11)) + 0.25*(($F12)/($F$11)) + 0.25*(($G12)/$G$11))</f>
-        <v>49821138.211382113</v>
+        <v>41180284.55284553</v>
       </c>
       <c r="N12" s="7">
         <f t="shared" ref="N12:P12" si="3">H12+K12</f>
-        <v>124956097.56097561</v>
+        <v>120489024.3902439</v>
       </c>
       <c r="O12" s="7">
         <f t="shared" si="3"/>
-        <v>368903252.03252029</v>
+        <v>362450813.00813007</v>
       </c>
       <c r="P12" s="7">
         <f t="shared" si="3"/>
-        <v>384821138.21138209</v>
+        <v>376180284.55284554</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="S12" s="2"/>
@@ -1166,16 +1166,16 @@
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>8000</v>
+        <v>5850</v>
       </c>
       <c r="E13" s="2">
-        <v>16000</v>
+        <v>11700</v>
       </c>
       <c r="F13" s="2">
-        <v>8000</v>
+        <v>5850</v>
       </c>
       <c r="G13" s="2">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="H13" s="7">
         <f>Quadratic!D$13*(Main!$C13^2) + Quadratic!D$14*Main!$C13 + Quadratic!D$15</f>
@@ -1191,27 +1191,27 @@
       </c>
       <c r="K13" s="7">
         <f>K$11*(0.25*(($D13)/($D$11)) + 0.25*(($E13)/($E$11)) + 0.25*(($F13)/($F$11)) + 0.25*(($G13)/$G$11))</f>
-        <v>25756097.560975607</v>
+        <v>20162195.121951219</v>
       </c>
       <c r="L13" s="7">
         <f>L$11*(0.25*(($D13)/($D$11)) + 0.25*(($E13)/($E$11)) + 0.25*(($F13)/($F$11)) + 0.25*(($G13)/$G$11))</f>
-        <v>37203252.032520324</v>
+        <v>29123170.731707316</v>
       </c>
       <c r="M13" s="7">
         <f>M$11*(0.25*(($D13)/($D$11)) + 0.25*(($E13)/($E$11)) + 0.25*(($F13)/($F$11)) + 0.25*(($G13)/$G$11))</f>
-        <v>49821138.211382113</v>
+        <v>39000609.756097563</v>
       </c>
       <c r="N13" s="7">
         <f>H13+K13</f>
-        <v>143922738.89347512</v>
+        <v>138328836.45445073</v>
       </c>
       <c r="O13" s="7">
         <f t="shared" ref="O13:P13" si="4">I13+L13</f>
-        <v>432269893.36502075</v>
+        <v>424189812.06420779</v>
       </c>
       <c r="P13" s="7">
         <f t="shared" si="4"/>
-        <v>448787779.54388255</v>
+        <v>437967251.08859801</v>
       </c>
       <c r="Q13" s="6"/>
       <c r="S13" s="2"/>
@@ -1227,13 +1227,13 @@
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>8000</v>
+        <v>6150</v>
       </c>
       <c r="E14" s="2">
-        <v>16000</v>
+        <v>12300</v>
       </c>
       <c r="F14" s="2">
-        <v>8000</v>
+        <v>6150</v>
       </c>
       <c r="G14" s="2">
         <v>8000</v>
@@ -1252,27 +1252,27 @@
       </c>
       <c r="K14" s="7">
         <f>K$11*(0.25*(($D14)/($D$11)) + 0.25*(($E14)/($E$11)) + 0.25*(($F14)/($F$11)) + 0.25*(($G14)/$G$11))</f>
-        <v>25756097.560975607</v>
+        <v>21289024.390243903</v>
       </c>
       <c r="L14" s="7">
         <f>L$11*(0.25*(($D14)/($D$11)) + 0.25*(($E14)/($E$11)) + 0.25*(($F14)/($F$11)) + 0.25*(($G14)/$G$11))</f>
-        <v>37203252.032520324</v>
+        <v>30750813.008130081</v>
       </c>
       <c r="M14" s="7">
         <f>M$11*(0.25*(($D14)/($D$11)) + 0.25*(($E14)/($E$11)) + 0.25*(($F14)/($F$11)) + 0.25*(($G14)/$G$11))</f>
-        <v>49821138.211382113</v>
+        <v>41180284.55284553</v>
       </c>
       <c r="N14" s="7">
         <f>H14+K14</f>
-        <v>101756070.87347656</v>
+        <v>97288997.702744856</v>
       </c>
       <c r="O14" s="7">
         <f t="shared" ref="O14" si="5">I14+L14</f>
-        <v>291403225.34502411</v>
+        <v>284950786.32063389</v>
       </c>
       <c r="P14" s="7">
         <f t="shared" ref="P14" si="6">J14+M14</f>
-        <v>306621111.52388591</v>
+        <v>297980257.86534935</v>
       </c>
       <c r="Q14" s="6"/>
       <c r="S14" s="2"/>
